--- a/final_results/3/github/github_ci_statistics.xlsx
+++ b/final_results/3/github/github_ci_statistics.xlsx
@@ -472,22 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>112</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -497,23 +497,21 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">

--- a/final_results/3/github/github_ci_statistics.xlsx
+++ b/final_results/3/github/github_ci_statistics.xlsx
@@ -472,10 +472,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C2" t="n">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -484,7 +484,7 @@
         <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
